--- a/Load/ontology/Gates/PROVIDE/doc/PROVIDE_aggregated_detection_template.xlsx
+++ b/Load/ontology/Gates/PROVIDE/doc/PROVIDE_aggregated_detection_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sshahsimpson/Documents/Git/ApiCommonData/Load/ontology/Gates/PROVIDE/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD61DDB-AD90-2445-B2AC-B535E7668D7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAC2572-21C8-884F-AC43-BE3D50D630C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22560" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12120" yWindow="2100" windowWidth="22560" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_detection_template" sheetId="1" r:id="rId1"/>
@@ -109,19 +109,19 @@
     <t>Poliovirus serotype 1</t>
   </si>
   <si>
-    <t>ext_mgmt_psi1::s1_mean_burden</t>
-  </si>
-  <si>
-    <t>ext_mgmt_psi2::s2_mean_burden</t>
-  </si>
-  <si>
-    <t>ext_mgmt_psi3::s3_mean_burden</t>
-  </si>
-  <si>
     <t>Poliovirus serotype 2</t>
   </si>
   <si>
     <t>Poliovirus serotype 3</t>
+  </si>
+  <si>
+    <t>ext_mgmt_psi1_2_3::s1_mean_burden</t>
+  </si>
+  <si>
+    <t>ext_mgmt_psi1_2_3::s2_mean_burden</t>
+  </si>
+  <si>
+    <t>ext_mgmt_psi1_2_3::s3_mean_burden</t>
   </si>
 </sst>
 </file>
@@ -973,10 +973,10 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="52" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="3" spans="1:19" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>22</v>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="4" spans="1:19" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>22</v>
@@ -1139,7 +1139,7 @@
         <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N4" s="2" t="str">
         <f t="shared" ref="N4:N10" si="0">TRIM(IF($D4&lt;&gt;"","Mean ","Any ")&amp;IF($H4="",$G4,"")
@@ -1166,7 +1166,7 @@
     </row>
     <row r="5" spans="1:19" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>22</v>
@@ -1184,7 +1184,7 @@
         <v>27</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N5" s="2" t="str">
         <f t="shared" si="0"/>

--- a/Load/ontology/Gates/PROVIDE/doc/PROVIDE_aggregated_detection_template.xlsx
+++ b/Load/ontology/Gates/PROVIDE/doc/PROVIDE_aggregated_detection_template.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sshahsimpson/Documents/Git/ApiCommonData/Load/ontology/Gates/PROVIDE/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjudkins/Documents/GitHub/ApiCommonData/Load/ontology/Gates/PROVIDE/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAC2572-21C8-884F-AC43-BE3D50D630C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F268154-3786-2D43-9BCF-B938A811B634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12120" yWindow="2100" windowWidth="22560" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11040" yWindow="2100" windowWidth="22560" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_detection_template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -973,10 +981,10 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="O3" sqref="O3:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="52" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1107,8 +1115,8 @@
         <v>Mean Poliovirus serotype 1 normalized copy number, by multiplexed qRT-PCR</v>
       </c>
       <c r="O3" s="2" t="str">
-        <f>TRIM(IF($I3="",IF($H3="",$G3,$H3),$I3)&amp;" aggregate data")</f>
-        <v>Poliovirus serotype 1 aggregate data</v>
+        <f>TRIM(F3&amp;" in "&amp;B3&amp;" aggregate data")</f>
+        <v>Enterovirus in stool aggregate data</v>
       </c>
       <c r="P3" s="2" t="str">
         <f>TRIM(IF($E3="Eukaryota","Eukaryote",$E3)&amp;" in "&amp;$B3&amp;" detection aggregate data")</f>
@@ -1152,8 +1160,8 @@
         <v>Mean Poliovirus serotype 2 normalized copy number, by multiplexed qRT-PCR</v>
       </c>
       <c r="O4" s="2" t="str">
-        <f t="shared" ref="O4:O10" si="1">TRIM(IF($I4="",IF($H4="",$G4,$H4),$I4)&amp;" aggregate data")</f>
-        <v>Poliovirus serotype 2 aggregate data</v>
+        <f t="shared" ref="O4:O10" si="1">TRIM(F4&amp;" in "&amp;B4&amp;" aggregate data")</f>
+        <v>Enterovirus in stool aggregate data</v>
       </c>
       <c r="P4" s="2" t="str">
         <f t="shared" ref="P4:P10" si="2">TRIM(IF($E4="Eukaryota","Eukaryote",$E4)&amp;" in "&amp;$B4&amp;" detection aggregate data")</f>
@@ -1192,7 +1200,7 @@
       </c>
       <c r="O5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Poliovirus serotype 3 aggregate data</v>
+        <v>Enterovirus in stool aggregate data</v>
       </c>
       <c r="P5" s="2" t="str">
         <f t="shared" si="2"/>
@@ -1211,7 +1219,7 @@
       </c>
       <c r="O6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>aggregate data</v>
+        <v>in aggregate data</v>
       </c>
       <c r="P6" s="2" t="str">
         <f t="shared" si="2"/>
@@ -1229,7 +1237,7 @@
       </c>
       <c r="O7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>aggregate data</v>
+        <v>in aggregate data</v>
       </c>
       <c r="P7" s="2" t="str">
         <f t="shared" si="2"/>
@@ -1247,7 +1255,7 @@
       </c>
       <c r="O8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>aggregate data</v>
+        <v>in aggregate data</v>
       </c>
       <c r="P8" s="2" t="str">
         <f t="shared" si="2"/>
@@ -1266,7 +1274,7 @@
       </c>
       <c r="O9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>aggregate data</v>
+        <v>in aggregate data</v>
       </c>
       <c r="P9" s="2" t="str">
         <f t="shared" si="2"/>
@@ -1285,7 +1293,7 @@
       </c>
       <c r="O10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>aggregate data</v>
+        <v>in aggregate data</v>
       </c>
       <c r="P10" s="2" t="str">
         <f t="shared" si="2"/>
